--- a/data/trans_dic/P02E$ssociales-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P02E$ssociales-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -690,12 +691,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,09</t>
+          <t>0,0; 6,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,63</t>
+          <t>0,0; 6,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +706,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,58</t>
+          <t>0,0; 3,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,93</t>
+          <t>1,02; 9,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,19 +721,19 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,87</t>
+          <t>0,0; 3,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,84</t>
+          <t>1,07; 6,31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -800,22 +801,22 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,97</t>
+          <t>0,0; 5,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 10,8</t>
+          <t>1,26; 10,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,92</t>
+          <t>0,0; 4,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,06</t>
+          <t>0,47; 4,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,24 +826,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>0,0; 3,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,23</t>
+          <t>0,62; 3,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,48</t>
+          <t>0,48; 3,99</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,17 +906,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,14</t>
+          <t>0,0; 8,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,45</t>
+          <t>0,0; 4,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,68</t>
+          <t>0,0; 7,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -925,7 +926,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,61</t>
+          <t>0,0; 3,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,17 +936,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,74</t>
+          <t>0,0; 3,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,18</t>
+          <t>0,0; 3,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,6</t>
+          <t>0,0; 3,29</t>
         </is>
       </c>
     </row>
@@ -1020,12 +1021,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 8,39</t>
+          <t>0,95; 8,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,72</t>
+          <t>0,0; 8,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1035,12 +1036,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,66</t>
+          <t>0,6; 5,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,96</t>
+          <t>0,0; 5,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1050,12 +1051,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,41</t>
+          <t>1,11; 5,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,53</t>
+          <t>0,52; 4,69</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1131,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,8</t>
+          <t>0,0; 12,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,39 +1141,39 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,68</t>
+          <t>0,0; 13,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 8,95</t>
+          <t>1,05; 8,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,1</t>
+          <t>0,0; 5,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,41</t>
+          <t>0,0; 7,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,29; 7,19</t>
+          <t>1,35; 7,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,09</t>
+          <t>0,0; 3,59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1245,7 +1246,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,49</t>
+          <t>0,0; 10,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1255,12 +1256,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,19</t>
+          <t>0,9; 9,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,57</t>
+          <t>0,0; 8,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1270,19 +1271,19 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,2</t>
+          <t>0,51; 4,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,8</t>
+          <t>0,0; 6,38</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1350,12 +1351,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,07</t>
+          <t>0,0; 2,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,43</t>
+          <t>0,0; 6,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1380,12 +1381,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,84</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,31</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
     </row>
@@ -1460,42 +1461,42 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,45</t>
+          <t>0,93; 5,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>0,0; 2,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,71</t>
+          <t>0,0; 2,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,77</t>
+          <t>0,3; 2,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,34</t>
+          <t>0,0; 2,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>0,0; 1,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,9</t>
+          <t>0,69; 2,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,72</t>
+          <t>0,16; 1,67</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,99</t>
+          <t>0,0; 0,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,63</t>
+          <t>0,94; 2,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,51</t>
+          <t>0,69; 2,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,1</t>
+          <t>0,19; 1,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,92</t>
+          <t>0,81; 1,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,67</t>
+          <t>0,47; 1,7</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,83</t>
+          <t>0,18; 0,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,97</t>
+          <t>1,03; 1,99</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,75</t>
+          <t>0,68; 1,66</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con ayuda al cuidado por parte de, al menos, una persona externa que es profesional de los servicios Sociales o sanitarios</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>946</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3927</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4872</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1907</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6056</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4860</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2126</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5202</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1008; 9188</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2052</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6991</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1849; 10893</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2107</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3183</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1778</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3269</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1778</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5377</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3183</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2002</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6650</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1011; 8471</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6165</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>999; 8663</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6264</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2128; 12131</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1018; 8536</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1859</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1027</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>984</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1859</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6118</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4569</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4513</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1920</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4516</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1788</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6570</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7189</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4609</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4083</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4150</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2037</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8233</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3037</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1928</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1052; 9747</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5107</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1850</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1080; 9737</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6945</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1893</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3248; 15319</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>932; 8333</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2056</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2986</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>954</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5043</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>954</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1847</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6806</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7085</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>971; 8122</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4247</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6161</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1983; 11208</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5617</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1348</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3992</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1117</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3992</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2465</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1964</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1989</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6705</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1979</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>990; 9931</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5718</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1991</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>987; 9038</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8462</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2176</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2176</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1999</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5105</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7652</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1985</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2047</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1984</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1997</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5430</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7018</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>5087</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>3279</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>2501</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>8366</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>3367</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2010</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1963; 10981</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 4806</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5273</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1066; 8789</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 8789</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5834</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>3917; 16237</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>862; 9143</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1859</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>16241</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>10440</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>4837</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>19675</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>10536</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>6696</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>35916</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>20975</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0; 5789</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>9290; 24976</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>5209; 18585</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>1878; 10719</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>12289; 29755</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>5172; 18929</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2909; 13638</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>25836; 49672</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>12635; 31076</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>